--- a/ezocean_table_NEU(20260210-20260322)_260211 0033.xlsx
+++ b/ezocean_table_NEU(20260210-20260322)_260211 0033.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\demo\capaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E8676-400C-45EE-81BE-E79B8F89A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F284DF5-5666-4D2E-840F-49655152C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13792" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13792" uniqueCount="1294">
   <si>
     <t>ID</t>
   </si>
@@ -3899,6 +3899,10 @@
   </si>
   <si>
     <t>2026/03/23</t>
+  </si>
+  <si>
+    <t>HMM(FE3) MSC(CONDOR) ONE(FE3) YML(FE3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4248,10 +4252,13 @@
   <dimension ref="A1:O921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4305,7 +4312,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>1293</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
